--- a/excel_pandas_matplotlib/t1.xlsx
+++ b/excel_pandas_matplotlib/t1.xlsx
@@ -11,6 +11,17 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,11 +373,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1">
-        <v>3816.41135546</v>
-      </c>
-      <c r="B1" s="1">
-        <v>11652.23382605</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
